--- a/optimized_intellight_v2/timing_diagram.xlsx
+++ b/optimized_intellight_v2/timing_diagram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\intelligent_traffic_light\optimized_intellight_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelligent_traffic_light\optimized_intellight_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3E4B0B-2BFA-47E3-9893-607C11EE709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0A238-0BF2-4700-A24D-9CF1F883CD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
   <si>
     <t>SD</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>wen/en</t>
   </si>
 </sst>
 </file>
@@ -472,6 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -484,7 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +806,10 @@
       <c r="J1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -880,7 +883,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -913,7 +916,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -945,7 +948,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -978,7 +981,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1046,7 +1049,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1082,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1112,10 +1115,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1144,8 +1147,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1172,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="13" t="s">
         <v>87</v>
       </c>
@@ -1202,7 +1205,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="13" t="s">
         <v>88</v>
       </c>
@@ -1238,8 +1241,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>86</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1271,8 +1274,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1305,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="13" t="s">
         <v>87</v>
       </c>
@@ -1344,7 +1347,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1394,7 +1397,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1451,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1884,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,17 +1910,17 @@
       <c r="G1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="19" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>80</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -1949,7 +1952,7 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1981,7 +1984,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2046,7 +2049,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2084,7 +2087,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2117,7 +2120,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -2150,10 +2153,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2182,8 +2185,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>88</v>
       </c>
@@ -2264,8 +2267,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2297,8 +2300,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2328,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="17" t="s">
         <v>87</v>
       </c>
@@ -2361,13 +2364,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2402,7 +2405,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2450,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>

--- a/optimized_intellight_v2/timing_diagram.xlsx
+++ b/optimized_intellight_v2/timing_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelligent_traffic_light\optimized_intellight_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0A238-0BF2-4700-A24D-9CF1F883CD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB219170-40AA-4D13-88B5-0DB679877DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="121">
   <si>
     <t>SD</t>
   </si>
@@ -344,6 +344,51 @@
   </si>
   <si>
     <t>wen/en</t>
+  </si>
+  <si>
+    <t>Aroad</t>
+  </si>
+  <si>
+    <t>Adur</t>
+  </si>
+  <si>
+    <t>Adur0</t>
+  </si>
+  <si>
+    <t>Adur1</t>
+  </si>
+  <si>
+    <t>Adur2</t>
+  </si>
+  <si>
+    <t>Adur3</t>
+  </si>
+  <si>
+    <t>Aroad0</t>
+  </si>
+  <si>
+    <t>Aroad1</t>
+  </si>
+  <si>
+    <t>Aroad2</t>
+  </si>
+  <si>
+    <t>Aroad3</t>
+  </si>
+  <si>
+    <t>Arand</t>
+  </si>
+  <si>
+    <t>Arand0</t>
+  </si>
+  <si>
+    <t>Arand1</t>
+  </si>
+  <si>
+    <t>Arand2</t>
+  </si>
+  <si>
+    <t>Arand3</t>
   </si>
 </sst>
 </file>
@@ -441,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -476,6 +521,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -806,10 +854,10 @@
       <c r="J1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="22"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
@@ -851,7 +899,7 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -883,7 +931,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -916,7 +964,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -948,7 +996,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -981,7 +1029,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1011,7 +1059,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1049,7 +1097,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1130,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1115,10 +1163,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1147,8 +1195,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1220,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="13" t="s">
         <v>87</v>
       </c>
@@ -1205,7 +1253,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="13" t="s">
         <v>88</v>
       </c>
@@ -1241,8 +1289,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
         <v>86</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1274,8 +1322,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1353,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="13" t="s">
         <v>87</v>
       </c>
@@ -1347,7 +1395,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1397,7 +1445,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -1451,7 +1499,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1881,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857699CA-ED85-4D3B-95C7-EA0EA48E9EDB}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,10 +1958,10 @@
       <c r="G1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="19" t="s">
         <v>78</v>
       </c>
@@ -1952,7 +2000,7 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1984,804 +2032,1006 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="G10" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="H14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H24" s="2" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="E34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L35" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/optimized_intellight_v2/timing_diagram.xlsx
+++ b/optimized_intellight_v2/timing_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelligent_traffic_light\optimized_intellight_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB219170-40AA-4D13-88B5-0DB679877DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7150EE5-9138-443C-8487-BB9487183198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13176" yWindow="2244" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="half" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="121">
   <si>
     <t>SD</t>
   </si>
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -521,6 +521,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -854,10 +857,10 @@
       <c r="J1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
@@ -899,7 +902,7 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -931,7 +934,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1032,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1097,7 +1100,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1130,7 +1133,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1163,10 +1166,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1195,8 +1198,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1220,7 +1223,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="13" t="s">
         <v>87</v>
       </c>
@@ -1253,7 +1256,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="13" t="s">
         <v>88</v>
       </c>
@@ -1289,8 +1292,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>86</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1322,8 +1325,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1356,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
         <v>87</v>
       </c>
@@ -1395,7 +1398,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1445,7 +1448,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -1499,7 +1502,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1929,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857699CA-ED85-4D3B-95C7-EA0EA48E9EDB}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,10 +1961,10 @@
       <c r="G1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="23"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="19" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2003,7 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2032,7 +2035,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2062,976 +2065,1012 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="G11" s="4" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="17" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="H15" s="3" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="17" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H25" s="2" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>112</v>
+      <c r="F31" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>113</v>
+      <c r="H31" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>114</v>
+      <c r="J31" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L31" s="10" t="s">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="L32" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
       <c r="E34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>117</v>
+      <c r="F34" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>118</v>
+      <c r="H34" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>119</v>
+      <c r="J34" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="L35" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
